--- a/src/test_groups.xlsx
+++ b/src/test_groups.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gperry\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FD44ADC-4DD0-493C-899A-802C2A31BCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
   <si>
     <t>Table 1</t>
   </si>
@@ -116,9 +110,6 @@
   </si>
   <si>
     <t>Monday</t>
-  </si>
-  <si>
-    <t>Bible Study</t>
   </si>
   <si>
     <t>Yes</t>
@@ -288,12 +279,18 @@
   </si>
   <si>
     <t>Griff Perry</t>
+  </si>
+  <si>
+    <t>Bible Study, Prayer, Freedom, Marriage, Finance, Outreach, Fitness/Health, Families, Fun/Hangout/Fellowship, Students, College Students, Other, Outdoor, Kids</t>
+  </si>
+  <si>
+    <t>Online</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -567,26 +564,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -644,7 +641,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,27 +673,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -728,24 +707,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -921,45 +882,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
     </row>
     <row r="2" spans="1:27" ht="153">
       <c r="A2" s="4" t="s">
@@ -1044,16 +1005,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="63.75">
+    <row r="3" spans="1:27" ht="242.25">
       <c r="A3" s="5">
         <v>13507637</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="17" t="s">
-        <v>58</v>
+      <c r="D3" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="7" t="b">
@@ -1061,56 +1022,56 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="R3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U3" s="1"/>
       <c r="V3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="63.75">
@@ -1118,13 +1079,13 @@
         <v>13511836</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="10" t="b">
@@ -1132,56 +1093,56 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U4" s="10"/>
       <c r="V4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="63.75">
@@ -1189,13 +1150,13 @@
         <v>13562419</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="14" t="b">
@@ -1203,42 +1164,44 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="L5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>30</v>
@@ -1247,16 +1210,16 @@
         <v>31</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="63.75">
@@ -1264,11 +1227,11 @@
         <v>13562476</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="18" t="s">
-        <v>52</v>
+      <c r="D6" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="14" t="b">
@@ -1276,58 +1239,58 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="14"/>
       <c r="O6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="63.75">
@@ -1335,13 +1298,13 @@
         <v>13562907</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="14" t="b">
@@ -1349,58 +1312,58 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="U7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="W7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="X7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="Z7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="63.75">
@@ -1408,13 +1371,13 @@
         <v>13563028</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="14" t="b">
@@ -1422,56 +1385,56 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="W8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="X8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="Z8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1482,13 +1445,13 @@
     <mergeCell ref="A1:AA1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{92E3F4D4-AE39-4BD6-A1F7-FFDEB4D2F9C9}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{4CC33D77-AE9A-4CE3-9E43-8DA17429EB7C}"/>
-    <hyperlink ref="D8" r:id="rId6" display="kassievest@daystarchurch.tv" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="M5" r:id="rId7" xr:uid="{9C378EB1-F234-4B52-9FC2-3B9FBE72D791}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6" display="kassievest@daystarchurch.tv"/>
+    <hyperlink ref="M5" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test_groups.xlsx
+++ b/src/test_groups.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
   <si>
     <t>Table 1</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Book Study</t>
   </si>
   <si>
     <t>Griff</t>
@@ -179,21 +176,12 @@
     <t>test group 1</t>
   </si>
   <si>
-    <t>Test description</t>
-  </si>
-  <si>
     <t>11306 County Line Rd, Madison, AL 35756</t>
   </si>
   <si>
     <t>Thursday</t>
   </si>
   <si>
-    <t>test@gmail.com</t>
-  </si>
-  <si>
-    <t>Don't Exist User</t>
-  </si>
-  <si>
     <t>test group 6</t>
   </si>
   <si>
@@ -218,9 +206,6 @@
     <t>18-30, 31-55, 55+</t>
   </si>
   <si>
-    <t>Outdoor</t>
-  </si>
-  <si>
     <t>Alex</t>
   </si>
   <si>
@@ -233,12 +218,6 @@
     <t>11:30 AM</t>
   </si>
   <si>
-    <t>Prayer</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -257,18 +236,12 @@
     <t>6:00 PM</t>
   </si>
   <si>
-    <t>Sp</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
     <t>7:00 AM</t>
   </si>
   <si>
-    <t>Outreach</t>
-  </si>
-  <si>
     <t>18-30</t>
   </si>
   <si>
@@ -285,6 +258,27 @@
   </si>
   <si>
     <t>Online</t>
+  </si>
+  <si>
+    <t>Ben Davis</t>
+  </si>
+  <si>
+    <t>Test description 1</t>
+  </si>
+  <si>
+    <t>Test description 2</t>
+  </si>
+  <si>
+    <t>Test description 3</t>
+  </si>
+  <si>
+    <t>Test description 4</t>
+  </si>
+  <si>
+    <t>Test description 5</t>
+  </si>
+  <si>
+    <t>Test description 6</t>
   </si>
 </sst>
 </file>
@@ -520,7 +514,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -562,9 +556,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -885,42 +876,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
     </row>
     <row r="2" spans="1:27" ht="153">
       <c r="A2" s="4" t="s">
@@ -1010,11 +1001,13 @@
         <v>13507637</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="15" t="s">
-        <v>57</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="7" t="b">
@@ -1022,7 +1015,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>34</v>
@@ -1034,16 +1027,16 @@
         <v>42</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>36</v>
@@ -1052,20 +1045,20 @@
         <v>43</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>32</v>
@@ -1074,18 +1067,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="63.75">
+    <row r="4" spans="1:27" ht="242.25">
       <c r="A4" s="8">
         <v>13511836</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="10" t="b">
@@ -1093,7 +1086,7 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>34</v>
@@ -1105,19 +1098,19 @@
         <v>32</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>43</v>
@@ -1133,10 +1126,10 @@
         <v>39</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>33</v>
@@ -1145,18 +1138,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="63.75">
+    <row r="5" spans="1:27" ht="242.25">
       <c r="A5" s="11">
         <v>13562419</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="14" t="b">
@@ -1164,7 +1157,7 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>40</v>
@@ -1176,32 +1169,32 @@
         <v>42</v>
       </c>
       <c r="L5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>30</v>
@@ -1210,28 +1203,30 @@
         <v>31</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>33</v>
+        <v>71</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="AA5" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="63.75">
+    <row r="6" spans="1:27" ht="242.25">
       <c r="A6" s="11">
         <v>13562476</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="D6" s="16" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="14" t="b">
@@ -1239,7 +1234,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>40</v>
@@ -1248,10 +1243,10 @@
         <v>44</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="14"/>
@@ -1259,13 +1254,13 @@
         <v>44</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>29</v>
@@ -1281,10 +1276,10 @@
         <v>45</v>
       </c>
       <c r="X6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>33</v>
@@ -1293,18 +1288,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="63.75">
+    <row r="7" spans="1:27" ht="242.25">
       <c r="A7" s="11">
         <v>13562907</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="14" t="b">
@@ -1312,7 +1307,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>46</v>
@@ -1324,19 +1319,19 @@
         <v>32</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>37</v>
@@ -1354,10 +1349,10 @@
         <v>48</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>49</v>
+        <v>71</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="Z7" s="3" t="s">
         <v>32</v>
@@ -1366,18 +1361,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="63.75">
+    <row r="8" spans="1:27" ht="242.25">
       <c r="A8" s="11">
         <v>13563028</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="14" t="b">
@@ -1385,7 +1380,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>46</v>
@@ -1397,38 +1392,38 @@
         <v>42</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>33</v>
@@ -1445,13 +1440,13 @@
     <mergeCell ref="A1:AA1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6" display="kassievest@daystarchurch.tv"/>
-    <hyperlink ref="M5" r:id="rId7"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D8" r:id="rId4" display="kassievest@daystarchurch.tv"/>
+    <hyperlink ref="M5" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
+    <hyperlink ref="D3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test_groups.xlsx
+++ b/src/test_groups.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
   <si>
     <t>Table 1</t>
   </si>
@@ -103,9 +103,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>Women</t>
-  </si>
-  <si>
     <t>Weekly</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>All ages welcome</t>
   </si>
   <si>
-    <t>Co-ed (Both Men and Women welcome)</t>
-  </si>
-  <si>
     <t>In Home</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>Men</t>
   </si>
   <si>
     <t>2XL</t>
@@ -254,9 +245,6 @@
     <t>Griff Perry</t>
   </si>
   <si>
-    <t>Bible Study, Prayer, Freedom, Marriage, Finance, Outreach, Fitness/Health, Families, Fun/Hangout/Fellowship, Students, College Students, Other, Outdoor, Kids</t>
-  </si>
-  <si>
     <t>Online</t>
   </si>
   <si>
@@ -279,6 +267,12 @@
   </si>
   <si>
     <t>Test description 6</t>
+  </si>
+  <si>
+    <t>Bible Study, Prayer, Freedom, Marriage, Finance, Outreach, Fitness/Health, Families, Fun/Hangout/Fellowship, College Students, Outdoor, Kids</t>
+  </si>
+  <si>
+    <t>Co-ed</t>
   </si>
 </sst>
 </file>
@@ -876,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="H8" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -996,18 +990,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="242.25">
+    <row r="3" spans="1:27" ht="216.75">
       <c r="A3" s="5">
         <v>13507637</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="7" t="b">
@@ -1015,70 +1009,70 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Z3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="4" spans="1:27" ht="242.25">
+    <row r="4" spans="1:27" ht="216.75">
       <c r="A4" s="8">
         <v>13511836</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="10" t="b">
@@ -1086,70 +1080,70 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>43</v>
+      <c r="S4" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U4" s="10"/>
       <c r="V4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="242.25">
+    <row r="5" spans="1:27" ht="216.75">
       <c r="A5" s="11">
         <v>13562419</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="14" t="b">
@@ -1157,76 +1151,76 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="L5" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5" s="3" t="s">
+      <c r="Z5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="AA5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="242.25">
+    <row r="6" spans="1:27" ht="216.75">
       <c r="A6" s="11">
         <v>13562476</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="14" t="b">
@@ -1234,72 +1228,72 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="14"/>
       <c r="O6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="T6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="242.25">
+    <row r="7" spans="1:27" ht="216.75">
       <c r="A7" s="11">
         <v>13562907</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="14" t="b">
@@ -1307,72 +1301,72 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="242.25">
+    <row r="8" spans="1:27" ht="216.75">
       <c r="A8" s="11">
         <v>13563028</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="14" t="b">
@@ -1380,56 +1374,56 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:27">

--- a/src/test_groups.xlsx
+++ b/src/test_groups.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
   <si>
     <t>Table 1</t>
   </si>
@@ -103,6 +103,9 @@
     <t>S</t>
   </si>
   <si>
+    <t>Women</t>
+  </si>
+  <si>
     <t>Weekly</t>
   </si>
   <si>
@@ -137,6 +140,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Men</t>
   </si>
   <si>
     <t>2XL</t>
@@ -269,10 +275,10 @@
     <t>Test description 6</t>
   </si>
   <si>
-    <t>Bible Study, Prayer, Freedom, Marriage, Finance, Outreach, Fitness/Health, Families, Fun/Hangout/Fellowship, College Students, Outdoor, Kids</t>
-  </si>
-  <si>
     <t>Co-ed</t>
+  </si>
+  <si>
+    <t>Bible Study, Prayer, Freedom, Marriage, Finance, Outreach, Fitness/Health, Families, Fun/Hangout/Fellowship, Students, Other, College Students, Outdoor, Kids</t>
   </si>
 </sst>
 </file>
@@ -990,18 +996,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="216.75">
+    <row r="3" spans="1:27" ht="242.25">
       <c r="A3" s="5">
         <v>13507637</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="7" t="b">
@@ -1009,70 +1015,70 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="216.75">
+    <row r="4" spans="1:27" ht="242.25">
       <c r="A4" s="8">
         <v>13511836</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="10" t="b">
@@ -1080,70 +1086,70 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U4" s="10"/>
       <c r="V4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Z4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="2" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="5" spans="1:27" ht="216.75">
+    <row r="5" spans="1:27" ht="242.25">
       <c r="A5" s="11">
         <v>13562419</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="14" t="b">
@@ -1151,76 +1157,76 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="M5" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="216.75">
+    <row r="6" spans="1:27" ht="242.25">
       <c r="A6" s="11">
         <v>13562476</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="14" t="b">
@@ -1228,72 +1234,72 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="14"/>
       <c r="O6" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Z6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AA6" s="3" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="7" spans="1:27" ht="216.75">
+    <row r="7" spans="1:27" ht="242.25">
       <c r="A7" s="11">
         <v>13562907</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="14" t="b">
@@ -1301,72 +1307,72 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="K7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="216.75">
+    <row r="8" spans="1:27" ht="242.25">
       <c r="A8" s="11">
         <v>13563028</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="14" t="b">
@@ -1374,56 +1380,56 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Z8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA8" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:27">

--- a/src/test_groups.xlsx
+++ b/src/test_groups.xlsx
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H8" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1045,7 +1045,7 @@
         <v>42</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1" t="s">

--- a/src/test_groups.xlsx
+++ b/src/test_groups.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
   <si>
     <t>Table 1</t>
   </si>
@@ -127,9 +127,6 @@
     <t>All ages welcome</t>
   </si>
   <si>
-    <t>Co-ed (Both Men and Women welcome)</t>
-  </si>
-  <si>
     <t>In Home</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
   </si>
   <si>
     <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Book Study</t>
   </si>
   <si>
     <t>Griff</t>
@@ -179,21 +173,12 @@
     <t>test group 1</t>
   </si>
   <si>
-    <t>Test description</t>
-  </si>
-  <si>
     <t>11306 County Line Rd, Madison, AL 35756</t>
   </si>
   <si>
     <t>Thursday</t>
   </si>
   <si>
-    <t>test@gmail.com</t>
-  </si>
-  <si>
-    <t>Don't Exist User</t>
-  </si>
-  <si>
     <t>test group 6</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
     <t>18-30, 31-55, 55+</t>
   </si>
   <si>
-    <t>Outdoor</t>
-  </si>
-  <si>
     <t>Alex</t>
   </si>
   <si>
@@ -233,12 +215,6 @@
     <t>11:30 AM</t>
   </si>
   <si>
-    <t>Prayer</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -257,18 +233,12 @@
     <t>6:00 PM</t>
   </si>
   <si>
-    <t>Sp</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
     <t>7:00 AM</t>
   </si>
   <si>
-    <t>Outreach</t>
-  </si>
-  <si>
     <t>18-30</t>
   </si>
   <si>
@@ -281,10 +251,34 @@
     <t>Griff Perry</t>
   </si>
   <si>
-    <t>Bible Study, Prayer, Freedom, Marriage, Finance, Outreach, Fitness/Health, Families, Fun/Hangout/Fellowship, Students, College Students, Other, Outdoor, Kids</t>
-  </si>
-  <si>
     <t>Online</t>
+  </si>
+  <si>
+    <t>Ben Davis</t>
+  </si>
+  <si>
+    <t>Test description 1</t>
+  </si>
+  <si>
+    <t>Test description 2</t>
+  </si>
+  <si>
+    <t>Test description 3</t>
+  </si>
+  <si>
+    <t>Test description 4</t>
+  </si>
+  <si>
+    <t>Test description 5</t>
+  </si>
+  <si>
+    <t>Test description 6</t>
+  </si>
+  <si>
+    <t>Co-ed</t>
+  </si>
+  <si>
+    <t>Bible Study, Prayer, Freedom, Marriage, Finance, Outreach, Fitness/Health, Families, Fun/Hangout/Fellowship, Students, Other, College Students, Outdoor, Kids</t>
   </si>
 </sst>
 </file>
@@ -520,7 +514,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -562,9 +556,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -885,42 +876,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
     </row>
     <row r="2" spans="1:27" ht="153">
       <c r="A2" s="4" t="s">
@@ -1010,11 +1001,13 @@
         <v>13507637</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="D3" s="15" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="7" t="b">
@@ -1022,7 +1015,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>34</v>
@@ -1031,41 +1024,41 @@
         <v>28</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>43</v>
+      <c r="S3" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>32</v>
@@ -1074,18 +1067,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="63.75">
+    <row r="4" spans="1:27" ht="242.25">
       <c r="A4" s="8">
         <v>13511836</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="10" t="b">
@@ -1093,7 +1086,7 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>34</v>
@@ -1105,38 +1098,38 @@
         <v>32</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U4" s="10"/>
       <c r="V4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>33</v>
@@ -1145,18 +1138,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="63.75">
+    <row r="5" spans="1:27" ht="242.25">
       <c r="A5" s="11">
         <v>13562419</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="14" t="b">
@@ -1164,44 +1157,44 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="L5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>30</v>
@@ -1210,28 +1203,30 @@
         <v>31</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>33</v>
+        <v>70</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="AA5" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="63.75">
+    <row r="6" spans="1:27" ht="242.25">
       <c r="A6" s="11">
         <v>13562476</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="D6" s="16" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="14" t="b">
@@ -1239,52 +1234,52 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="14"/>
       <c r="O6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>33</v>
@@ -1293,18 +1288,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="63.75">
+    <row r="7" spans="1:27" ht="242.25">
       <c r="A7" s="11">
         <v>13562907</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="14" t="b">
@@ -1312,52 +1307,52 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="S7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="U7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>49</v>
+        <v>70</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="Z7" s="3" t="s">
         <v>32</v>
@@ -1366,18 +1361,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="63.75">
+    <row r="8" spans="1:27" ht="242.25">
       <c r="A8" s="11">
         <v>13563028</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="14" t="b">
@@ -1385,50 +1380,50 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>33</v>
@@ -1445,13 +1440,13 @@
     <mergeCell ref="A1:AA1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6" display="kassievest@daystarchurch.tv"/>
-    <hyperlink ref="M5" r:id="rId7"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D8" r:id="rId4" display="kassievest@daystarchurch.tv"/>
+    <hyperlink ref="M5" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
+    <hyperlink ref="D3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
